--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H2">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I2">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J2">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5027769999999999</v>
+        <v>0.5620333333333333</v>
       </c>
       <c r="N2">
-        <v>1.508331</v>
+        <v>1.6861</v>
       </c>
       <c r="O2">
-        <v>0.01505293423242436</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="P2">
-        <v>0.01505293423242436</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="Q2">
-        <v>45.22981372463767</v>
+        <v>51.67411146747778</v>
       </c>
       <c r="R2">
-        <v>407.068323521739</v>
+        <v>465.0670032073</v>
       </c>
       <c r="S2">
-        <v>0.0003409755344341496</v>
+        <v>0.0003858508884251527</v>
       </c>
       <c r="T2">
-        <v>0.0003409755344341496</v>
+        <v>0.0003858508884251527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H3">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I3">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J3">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>98.13091799999999</v>
       </c>
       <c r="O3">
-        <v>0.9793329546508215</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="P3">
-        <v>0.9793329546508215</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="Q3">
-        <v>2942.618789753505</v>
+        <v>3007.430161400819</v>
       </c>
       <c r="R3">
-        <v>26483.56910778154</v>
+        <v>27066.87145260737</v>
       </c>
       <c r="S3">
-        <v>0.02218362031249355</v>
+        <v>0.02245649836443616</v>
       </c>
       <c r="T3">
-        <v>0.02218362031249356</v>
+        <v>0.02245649836443616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H4">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I4">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J4">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1531426666666667</v>
+        <v>0.1711366666666666</v>
       </c>
       <c r="N4">
-        <v>0.459428</v>
+        <v>0.5134099999999999</v>
       </c>
       <c r="O4">
-        <v>0.004585027734982747</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="P4">
-        <v>0.004585027734982747</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="Q4">
-        <v>13.77671271085911</v>
+        <v>15.73453862079222</v>
       </c>
       <c r="R4">
-        <v>123.990414397732</v>
+        <v>141.61084758713</v>
       </c>
       <c r="S4">
-        <v>0.0001038589724894685</v>
+        <v>0.0001174898906508259</v>
       </c>
       <c r="T4">
-        <v>0.0001038589724894685</v>
+        <v>0.0001174898906508259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H5">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I5">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J5">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03437200000000001</v>
+        <v>0.133027</v>
       </c>
       <c r="N5">
-        <v>0.103116</v>
+        <v>0.399081</v>
       </c>
       <c r="O5">
-        <v>0.001029083381771422</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="P5">
-        <v>0.001029083381771422</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="Q5">
-        <v>3.092104764822667</v>
+        <v>12.23068387317033</v>
       </c>
       <c r="R5">
-        <v>27.828942883404</v>
+        <v>110.076154858533</v>
       </c>
       <c r="S5">
-        <v>2.331055531492211E-05</v>
+        <v>9.132658703730403E-05</v>
       </c>
       <c r="T5">
-        <v>2.331055531492211E-05</v>
+        <v>9.132658703730403E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3857.568359333333</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H6">
-        <v>11572.705078</v>
+        <v>275.824093</v>
       </c>
       <c r="I6">
-        <v>0.9713288509301208</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J6">
-        <v>0.971328850930121</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5027769999999999</v>
+        <v>0.03541066666666667</v>
       </c>
       <c r="N6">
-        <v>1.508331</v>
+        <v>0.106232</v>
       </c>
       <c r="O6">
-        <v>0.01505293423242436</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="P6">
-        <v>0.01505293423242436</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="Q6">
-        <v>1939.496647000535</v>
+        <v>3.255705005286222</v>
       </c>
       <c r="R6">
-        <v>17455.46982300482</v>
+        <v>29.301345047576</v>
       </c>
       <c r="S6">
-        <v>0.01462134931110744</v>
+        <v>2.431036805597582E-05</v>
       </c>
       <c r="T6">
-        <v>0.01462134931110744</v>
+        <v>2.431036805597581E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J7">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.710306</v>
+        <v>0.5620333333333333</v>
       </c>
       <c r="N7">
-        <v>98.13091799999999</v>
+        <v>1.6861</v>
       </c>
       <c r="O7">
-        <v>0.9793329546508215</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="P7">
-        <v>0.9793329546508215</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="Q7">
-        <v>126182.2414497113</v>
+        <v>2168.082003557311</v>
       </c>
       <c r="R7">
-        <v>1135640.173047401</v>
+        <v>19512.7380320158</v>
       </c>
       <c r="S7">
-        <v>0.9512543535189825</v>
+        <v>0.01618908082778895</v>
       </c>
       <c r="T7">
-        <v>0.9512543535189827</v>
+        <v>0.01618908082778895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J8">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1531426666666667</v>
+        <v>32.710306</v>
       </c>
       <c r="N8">
-        <v>0.459428</v>
+        <v>98.13091799999999</v>
       </c>
       <c r="O8">
-        <v>0.004585027734982747</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="P8">
-        <v>0.004585027734982747</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="Q8">
-        <v>590.7583053972648</v>
+        <v>126182.2414497113</v>
       </c>
       <c r="R8">
-        <v>5316.824748575384</v>
+        <v>1135640.173047401</v>
       </c>
       <c r="S8">
-        <v>0.004453569721303526</v>
+        <v>0.9422035248248201</v>
       </c>
       <c r="T8">
-        <v>0.004453569721303527</v>
+        <v>0.9422035248248201</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J9">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03437200000000001</v>
+        <v>0.1711366666666666</v>
       </c>
       <c r="N9">
-        <v>0.103116</v>
+        <v>0.5134099999999999</v>
       </c>
       <c r="O9">
-        <v>0.001029083381771422</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="P9">
-        <v>0.001029083381771422</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="Q9">
-        <v>132.5923396470053</v>
+        <v>660.1713904551086</v>
       </c>
       <c r="R9">
-        <v>1193.331056823048</v>
+        <v>5941.542514095979</v>
       </c>
       <c r="S9">
-        <v>0.0009995783787273185</v>
+        <v>0.004929503580923505</v>
       </c>
       <c r="T9">
-        <v>0.0009995783787273187</v>
+        <v>0.004929503580923505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1342213333333333</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H10">
-        <v>0.402664</v>
+        <v>11572.705078</v>
       </c>
       <c r="I10">
-        <v>3.379669297668818E-05</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J10">
-        <v>3.379669297668818E-05</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5027769999999999</v>
+        <v>0.133027</v>
       </c>
       <c r="N10">
-        <v>1.508331</v>
+        <v>0.399081</v>
       </c>
       <c r="O10">
-        <v>0.01505293423242436</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="P10">
-        <v>0.01505293423242436</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="Q10">
-        <v>0.06748339930933332</v>
+        <v>513.1607461370352</v>
       </c>
       <c r="R10">
-        <v>0.607350593784</v>
+        <v>4618.446715233317</v>
       </c>
       <c r="S10">
-        <v>5.087393966515255E-07</v>
+        <v>0.003831774251725781</v>
       </c>
       <c r="T10">
-        <v>5.087393966515256E-07</v>
+        <v>0.003831774251725781</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1342213333333333</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H11">
-        <v>0.402664</v>
+        <v>11572.705078</v>
       </c>
       <c r="I11">
-        <v>3.379669297668818E-05</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J11">
-        <v>3.379669297668818E-05</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>32.710306</v>
+        <v>0.03541066666666667</v>
       </c>
       <c r="N11">
-        <v>98.13091799999999</v>
+        <v>0.106232</v>
       </c>
       <c r="O11">
-        <v>0.9793329546508215</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="P11">
-        <v>0.9793329546508215</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="Q11">
-        <v>4.390420885061332</v>
+        <v>136.5990673162329</v>
       </c>
       <c r="R11">
-        <v>39.513787965552</v>
+        <v>1229.391605846096</v>
       </c>
       <c r="S11">
-        <v>3.30982151902867E-05</v>
+        <v>0.001019986023662698</v>
       </c>
       <c r="T11">
-        <v>3.309821519028671E-05</v>
+        <v>0.001019986023662698</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H12">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1531426666666667</v>
+        <v>0.5620333333333333</v>
       </c>
       <c r="N12">
-        <v>0.459428</v>
+        <v>1.6861</v>
       </c>
       <c r="O12">
-        <v>0.004585027734982747</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="P12">
-        <v>0.004585027734982747</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="Q12">
-        <v>0.02055501291022222</v>
+        <v>1.034551992355556</v>
       </c>
       <c r="R12">
-        <v>0.184995116192</v>
+        <v>9.3109679312</v>
       </c>
       <c r="S12">
-        <v>1.549587746488119E-07</v>
+        <v>7.725005695040102E-06</v>
       </c>
       <c r="T12">
-        <v>1.549587746488119E-07</v>
+        <v>7.725005695040103E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H13">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.03437200000000001</v>
+        <v>32.710306</v>
       </c>
       <c r="N13">
-        <v>0.103116</v>
+        <v>98.13091799999999</v>
       </c>
       <c r="O13">
-        <v>0.001029083381771422</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="P13">
-        <v>0.001029083381771422</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="Q13">
-        <v>0.004613455669333334</v>
+        <v>60.21086337025066</v>
       </c>
       <c r="R13">
-        <v>0.04152110102400001</v>
+        <v>541.897770332256</v>
       </c>
       <c r="S13">
-        <v>3.477961510114075E-08</v>
+        <v>0.0004495948641299526</v>
       </c>
       <c r="T13">
-        <v>3.477961510114075E-08</v>
+        <v>0.0004495948641299527</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.51770233333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H14">
-        <v>70.553107</v>
+        <v>5.522192</v>
       </c>
       <c r="I14">
-        <v>0.005921715613589566</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J14">
-        <v>0.005921715613589568</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,43 +1302,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.5027769999999999</v>
+        <v>0.1711366666666666</v>
       </c>
       <c r="N14">
-        <v>1.508331</v>
+        <v>0.5134099999999999</v>
       </c>
       <c r="O14">
-        <v>0.01505293423242436</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="P14">
-        <v>0.01505293423242436</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="Q14">
-        <v>11.82415982604633</v>
+        <v>0.3150165105244444</v>
       </c>
       <c r="R14">
-        <v>106.417438434417</v>
+        <v>2.83514859472</v>
       </c>
       <c r="S14">
-        <v>8.913919567448423E-05</v>
+        <v>2.352230101352552E-06</v>
       </c>
       <c r="T14">
-        <v>8.913919567448425E-05</v>
+        <v>2.352230101352552E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.51770233333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H15">
-        <v>70.553107</v>
+        <v>5.522192</v>
       </c>
       <c r="I15">
-        <v>0.005921715613589566</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J15">
-        <v>0.005921715613589568</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>32.710306</v>
+        <v>0.133027</v>
       </c>
       <c r="N15">
-        <v>98.13091799999999</v>
+        <v>0.399081</v>
       </c>
       <c r="O15">
-        <v>0.9793329546508215</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="P15">
-        <v>0.9793329546508215</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="Q15">
-        <v>769.2712397402472</v>
+        <v>0.2448668783946666</v>
       </c>
       <c r="R15">
-        <v>6923.441157662225</v>
+        <v>2.203801905552</v>
       </c>
       <c r="S15">
-        <v>0.005799331248458573</v>
+        <v>1.828422393560464E-06</v>
       </c>
       <c r="T15">
-        <v>0.005799331248458574</v>
+        <v>1.828422393560464E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.51770233333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H16">
-        <v>70.553107</v>
+        <v>5.522192</v>
       </c>
       <c r="I16">
-        <v>0.005921715613589566</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J16">
-        <v>0.005921715613589568</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1531426666666667</v>
+        <v>0.03541066666666667</v>
       </c>
       <c r="N16">
-        <v>0.459428</v>
+        <v>0.106232</v>
       </c>
       <c r="O16">
-        <v>0.004585027734982747</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="P16">
-        <v>0.004585027734982747</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="Q16">
-        <v>3.601563649199556</v>
+        <v>0.06518150006044444</v>
       </c>
       <c r="R16">
-        <v>32.414072842796</v>
+        <v>0.586633500544</v>
       </c>
       <c r="S16">
-        <v>2.715123032698854E-05</v>
+        <v>4.867106369702273E-07</v>
       </c>
       <c r="T16">
-        <v>2.715123032698855E-05</v>
+        <v>4.867106369702272E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H17">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I17">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J17">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.03437200000000001</v>
+        <v>0.5620333333333333</v>
       </c>
       <c r="N17">
-        <v>0.103116</v>
+        <v>1.6861</v>
       </c>
       <c r="O17">
-        <v>0.001029083381771422</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="P17">
-        <v>0.001029083381771422</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="Q17">
-        <v>0.8083504646013334</v>
+        <v>17.49003407637778</v>
       </c>
       <c r="R17">
-        <v>7.275154181412001</v>
+        <v>157.4103066874</v>
       </c>
       <c r="S17">
-        <v>6.093939129521384E-06</v>
+        <v>0.0001305981853447815</v>
       </c>
       <c r="T17">
-        <v>6.093939129521385E-06</v>
+        <v>0.0001305981853447815</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.253661</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H18">
-        <v>0.760983</v>
+        <v>93.357634</v>
       </c>
       <c r="I18">
-        <v>6.387138858074995E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J18">
-        <v>6.387138858074996E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5027769999999999</v>
+        <v>32.710306</v>
       </c>
       <c r="N18">
-        <v>1.508331</v>
+        <v>98.13091799999999</v>
       </c>
       <c r="O18">
-        <v>0.01505293423242436</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="P18">
-        <v>0.01505293423242436</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="Q18">
-        <v>0.127534916597</v>
+        <v>1017.918925192001</v>
       </c>
       <c r="R18">
-        <v>1.147814249373</v>
+        <v>9161.270326728012</v>
       </c>
       <c r="S18">
-        <v>9.614518116396495E-07</v>
+        <v>0.007600806486577042</v>
       </c>
       <c r="T18">
-        <v>9.614518116396497E-07</v>
+        <v>0.007600806486577042</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>31.11921133333334</v>
+      </c>
+      <c r="H19">
+        <v>93.357634</v>
+      </c>
+      <c r="I19">
+        <v>0.007810310653280575</v>
+      </c>
+      <c r="J19">
+        <v>0.007810310653280575</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.253661</v>
-      </c>
-      <c r="H19">
-        <v>0.760983</v>
-      </c>
-      <c r="I19">
-        <v>6.387138858074995E-05</v>
-      </c>
-      <c r="J19">
-        <v>6.387138858074996E-05</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>32.710306</v>
+        <v>0.1711366666666666</v>
       </c>
       <c r="N19">
-        <v>98.13091799999999</v>
+        <v>0.5134099999999999</v>
       </c>
       <c r="O19">
-        <v>0.9793329546508215</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="P19">
-        <v>0.9793329546508215</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="Q19">
-        <v>8.297328930265998</v>
+        <v>5.325638096882222</v>
       </c>
       <c r="R19">
-        <v>74.67596037239399</v>
+        <v>47.93074287194</v>
       </c>
       <c r="S19">
-        <v>6.255135569643658E-05</v>
+        <v>3.976657039194843E-05</v>
       </c>
       <c r="T19">
-        <v>6.25513556964366E-05</v>
+        <v>3.976657039194843E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,25 +1647,25 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.253661</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H20">
-        <v>0.760983</v>
+        <v>93.357634</v>
       </c>
       <c r="I20">
-        <v>6.387138858074995E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J20">
-        <v>6.387138858074996E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,60 +1674,60 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1531426666666667</v>
+        <v>0.133027</v>
       </c>
       <c r="N20">
-        <v>0.459428</v>
+        <v>0.399081</v>
       </c>
       <c r="O20">
-        <v>0.004585027734982747</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="P20">
-        <v>0.004585027734982747</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="Q20">
-        <v>0.03884632196933333</v>
+        <v>4.139695326039333</v>
       </c>
       <c r="R20">
-        <v>0.349616897724</v>
+        <v>37.257257934354</v>
       </c>
       <c r="S20">
-        <v>2.928520881145988E-07</v>
+        <v>3.091112888060063E-05</v>
       </c>
       <c r="T20">
-        <v>2.928520881145989E-07</v>
+        <v>3.091112888060063E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.253661</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H21">
-        <v>0.760983</v>
+        <v>93.357634</v>
       </c>
       <c r="I21">
-        <v>6.387138858074995E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J21">
-        <v>6.387138858074996E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.03437200000000001</v>
+        <v>0.03541066666666667</v>
       </c>
       <c r="N21">
-        <v>0.103116</v>
+        <v>0.106232</v>
       </c>
       <c r="O21">
-        <v>0.001029083381771422</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="P21">
-        <v>0.001029083381771422</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="Q21">
-        <v>0.008718835892000001</v>
+        <v>1.101952019454222</v>
       </c>
       <c r="R21">
-        <v>0.078469523028</v>
+        <v>9.917568175088</v>
       </c>
       <c r="S21">
-        <v>6.572898455911476E-08</v>
+        <v>8.22828208620297E-06</v>
       </c>
       <c r="T21">
-        <v>6.572898455911478E-08</v>
+        <v>8.228282086202968E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.905952</v>
+      </c>
+      <c r="H22">
+        <v>5.717856</v>
+      </c>
+      <c r="I22">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="J22">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5620333333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.6861</v>
+      </c>
+      <c r="O22">
+        <v>0.01672125362771917</v>
+      </c>
+      <c r="P22">
+        <v>0.01672125362771917</v>
+      </c>
+      <c r="Q22">
+        <v>1.071208555733333</v>
+      </c>
+      <c r="R22">
+        <v>9.6408770016</v>
+      </c>
+      <c r="S22">
+        <v>7.998720465246268E-06</v>
+      </c>
+      <c r="T22">
+        <v>7.998720465246268E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.905952</v>
+      </c>
+      <c r="H23">
+        <v>5.717856</v>
+      </c>
+      <c r="I23">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="J23">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>32.710306</v>
+      </c>
+      <c r="N23">
+        <v>98.13091799999999</v>
+      </c>
+      <c r="O23">
+        <v>0.9731759495871608</v>
+      </c>
+      <c r="P23">
+        <v>0.9731759495871608</v>
+      </c>
+      <c r="Q23">
+        <v>62.34427314131199</v>
+      </c>
+      <c r="R23">
+        <v>561.098458271808</v>
+      </c>
+      <c r="S23">
+        <v>0.000465525047197677</v>
+      </c>
+      <c r="T23">
+        <v>0.000465525047197677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.905952</v>
+      </c>
+      <c r="H24">
+        <v>5.717856</v>
+      </c>
+      <c r="I24">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="J24">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1711366666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.5134099999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.005091547847107109</v>
+      </c>
+      <c r="P24">
+        <v>0.005091547847107109</v>
+      </c>
+      <c r="Q24">
+        <v>0.3261782721066666</v>
+      </c>
+      <c r="R24">
+        <v>2.93560444896</v>
+      </c>
+      <c r="S24">
+        <v>2.43557503947695E-06</v>
+      </c>
+      <c r="T24">
+        <v>2.43557503947695E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.905952</v>
+      </c>
+      <c r="H25">
+        <v>5.717856</v>
+      </c>
+      <c r="I25">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="J25">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.133027</v>
+      </c>
+      <c r="N25">
+        <v>0.399081</v>
+      </c>
+      <c r="O25">
+        <v>0.003957733597653634</v>
+      </c>
+      <c r="P25">
+        <v>0.003957733597653634</v>
+      </c>
+      <c r="Q25">
+        <v>0.2535430767039999</v>
+      </c>
+      <c r="R25">
+        <v>2.281887690336</v>
+      </c>
+      <c r="S25">
+        <v>1.893207616387489E-06</v>
+      </c>
+      <c r="T25">
+        <v>1.893207616387489E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.905952</v>
+      </c>
+      <c r="H26">
+        <v>5.717856</v>
+      </c>
+      <c r="I26">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="J26">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.03541066666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.106232</v>
+      </c>
+      <c r="O26">
+        <v>0.001053515340359328</v>
+      </c>
+      <c r="P26">
+        <v>0.001053515340359328</v>
+      </c>
+      <c r="Q26">
+        <v>0.06749103095466667</v>
+      </c>
+      <c r="R26">
+        <v>0.607419278592</v>
+      </c>
+      <c r="S26">
+        <v>5.039559174806011E-07</v>
+      </c>
+      <c r="T26">
+        <v>5.03955917480601E-07</v>
       </c>
     </row>
   </sheetData>
